--- a/需求分析/用户优先级打分表/SRA2021-G05-需求优先级v0.0.2.xlsx
+++ b/需求分析/用户优先级打分表/SRA2021-G05-需求优先级v0.0.2.xlsx
@@ -1429,11 +1429,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="27">
@@ -1483,6 +1483,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1491,7 +1513,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1506,14 +1528,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1522,6 +1537,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1540,6 +1563,14 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1584,37 +1615,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1666,7 +1666,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1678,7 +1684,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1690,31 +1720,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1726,55 +1768,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1792,25 +1786,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1822,19 +1804,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1845,6 +1845,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1859,6 +1874,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1904,47 +1945,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1953,10 +1953,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1965,133 +1965,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2104,7 +2104,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2494,7 +2494,7 @@
   <dimension ref="A1:M108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="H3" sqref="H3:L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2551,10 +2551,10 @@
       <c r="H3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
       <c r="M3" s="2"/>
     </row>
     <row r="4" ht="14.25" spans="1:13">
@@ -2570,10 +2570,10 @@
       <c r="H4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
       <c r="M4" s="2"/>
     </row>
     <row r="5" ht="14.25" spans="1:13">
@@ -2589,10 +2589,10 @@
       <c r="H5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
       <c r="M5" s="2"/>
     </row>
     <row r="6" ht="14.25" spans="1:13">
@@ -2608,10 +2608,10 @@
       <c r="H6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
       <c r="M6" s="2"/>
     </row>
     <row r="7" ht="14.25" spans="1:13">
@@ -2625,10 +2625,10 @@
       <c r="H7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
       <c r="M7" s="2"/>
     </row>
     <row r="8" spans="1:10">
@@ -2726,25 +2726,25 @@
         <v>9</v>
       </c>
       <c r="F12" s="10">
-        <f>D12+E12</f>
+        <f t="shared" ref="F12:F75" si="0">D12+E12</f>
         <v>18</v>
       </c>
       <c r="G12" s="11">
-        <f>F12/F$103</f>
+        <f t="shared" ref="G12:G75" si="1">F12/F$103</f>
         <v>0.0217829770068576</v>
       </c>
       <c r="H12" s="10">
         <v>1</v>
       </c>
       <c r="I12" s="11">
-        <f>H12/H$103</f>
+        <f t="shared" ref="I12:I75" si="2">H12/H$103</f>
         <v>0.00255754475703325</v>
       </c>
       <c r="J12" s="10">
         <v>3</v>
       </c>
       <c r="K12" s="11">
-        <f>J12/J$103</f>
+        <f t="shared" ref="K12:K75" si="3">J12/J$103</f>
         <v>0.00835654596100279</v>
       </c>
       <c r="L12" s="21">
@@ -2769,25 +2769,25 @@
         <v>9</v>
       </c>
       <c r="F13" s="14">
-        <f>D13+E13</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="G13" s="15">
-        <f>F13/F$103</f>
+        <f t="shared" si="1"/>
         <v>0.0217829770068576</v>
       </c>
       <c r="H13" s="14">
         <v>2</v>
       </c>
       <c r="I13" s="15">
-        <f>H13/H$103</f>
+        <f t="shared" si="2"/>
         <v>0.0051150895140665</v>
       </c>
       <c r="J13" s="14">
         <v>3</v>
       </c>
       <c r="K13" s="15">
-        <f>J13/J$103</f>
+        <f t="shared" si="3"/>
         <v>0.00835654596100279</v>
       </c>
       <c r="L13" s="22">
@@ -2812,25 +2812,25 @@
         <v>8</v>
       </c>
       <c r="F14" s="17">
-        <f>D14+E14</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="G14" s="18">
-        <f>F14/F$103</f>
+        <f t="shared" si="1"/>
         <v>0.0193626462283179</v>
       </c>
       <c r="H14" s="17">
         <v>2</v>
       </c>
       <c r="I14" s="18">
-        <f>H14/H$103</f>
+        <f t="shared" si="2"/>
         <v>0.0051150895140665</v>
       </c>
       <c r="J14" s="17">
         <v>3</v>
       </c>
       <c r="K14" s="18">
-        <f>J14/J$103</f>
+        <f t="shared" si="3"/>
         <v>0.00835654596100279</v>
       </c>
       <c r="L14" s="23">
@@ -2855,29 +2855,29 @@
         <v>7.33333333333333</v>
       </c>
       <c r="F15" s="14">
-        <f>D15+E15</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="G15" s="15">
-        <f>F15/F$103</f>
+        <f t="shared" si="1"/>
         <v>0.0169423154497781</v>
       </c>
       <c r="H15" s="14">
         <v>3</v>
       </c>
       <c r="I15" s="15">
-        <f>H15/H$103</f>
+        <f t="shared" si="2"/>
         <v>0.00767263427109974</v>
       </c>
       <c r="J15" s="14">
         <v>3</v>
       </c>
       <c r="K15" s="15">
-        <f>J15/J$103</f>
+        <f t="shared" si="3"/>
         <v>0.00835654596100279</v>
       </c>
       <c r="L15" s="22">
-        <f>G15/(I15+K15)*10*1.2</f>
+        <f t="shared" ref="L15:L76" si="4">G15/(I15+K15)*10*1.2</f>
         <v>12.6836046793062</v>
       </c>
     </row>
@@ -2898,29 +2898,29 @@
         <v>4</v>
       </c>
       <c r="F16" s="10">
-        <f>D16+E16</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="G16" s="11">
-        <f>F16/F$103</f>
+        <f t="shared" si="1"/>
         <v>0.0108914885034288</v>
       </c>
       <c r="H16" s="10">
         <v>3</v>
       </c>
       <c r="I16" s="11">
-        <f>H16/H$103</f>
+        <f t="shared" si="2"/>
         <v>0.00767263427109974</v>
       </c>
       <c r="J16" s="10">
         <v>1</v>
       </c>
       <c r="K16" s="11">
-        <f>J16/J$103</f>
+        <f t="shared" si="3"/>
         <v>0.00278551532033426</v>
       </c>
       <c r="L16" s="21">
-        <f>G16/(I16+K16)*10*1.2</f>
+        <f t="shared" si="4"/>
         <v>12.4972262921346</v>
       </c>
     </row>
@@ -2941,29 +2941,29 @@
         <v>3.66666666666667</v>
       </c>
       <c r="F17" s="10">
-        <f>D17+E17</f>
+        <f t="shared" si="0"/>
         <v>8.66666666666667</v>
       </c>
       <c r="G17" s="11">
-        <f>F17/F$103</f>
+        <f t="shared" si="1"/>
         <v>0.0104881000403388</v>
       </c>
       <c r="H17" s="10">
         <v>3</v>
       </c>
       <c r="I17" s="11">
-        <f>H17/H$103</f>
+        <f t="shared" si="2"/>
         <v>0.00767263427109974</v>
       </c>
       <c r="J17" s="10">
         <v>1</v>
       </c>
       <c r="K17" s="11">
-        <f>J17/J$103</f>
+        <f t="shared" si="3"/>
         <v>0.00278551532033426</v>
       </c>
       <c r="L17" s="21">
-        <f>G17/(I17+K17)*10*1.2</f>
+        <f t="shared" si="4"/>
         <v>12.0343660590926</v>
       </c>
     </row>
@@ -2984,29 +2984,29 @@
         <v>4.66666666666667</v>
       </c>
       <c r="F18" s="10">
-        <f>D18+E18</f>
+        <f t="shared" si="0"/>
         <v>10.3333333333333</v>
       </c>
       <c r="G18" s="11">
-        <f>F18/F$103</f>
+        <f t="shared" si="1"/>
         <v>0.0125050423557886</v>
       </c>
       <c r="H18" s="10">
         <v>3</v>
       </c>
       <c r="I18" s="11">
-        <f>H18/H$103</f>
+        <f t="shared" si="2"/>
         <v>0.00767263427109974</v>
       </c>
       <c r="J18" s="10">
         <v>2</v>
       </c>
       <c r="K18" s="11">
-        <f>J18/J$103</f>
+        <f t="shared" si="3"/>
         <v>0.00557103064066852</v>
       </c>
       <c r="L18" s="21">
-        <f>G18/(I18+K18)*10*1.2</f>
+        <f t="shared" si="4"/>
         <v>11.3307388301648</v>
       </c>
     </row>
@@ -3027,29 +3027,29 @@
         <v>4.66666666666667</v>
       </c>
       <c r="F19" s="14">
-        <f>D19+E19</f>
+        <f t="shared" si="0"/>
         <v>10.3333333333333</v>
       </c>
       <c r="G19" s="15">
-        <f>F19/F$103</f>
+        <f t="shared" si="1"/>
         <v>0.0125050423557886</v>
       </c>
       <c r="H19" s="14">
         <v>2</v>
       </c>
       <c r="I19" s="15">
-        <f>H19/H$103</f>
+        <f t="shared" si="2"/>
         <v>0.0051150895140665</v>
       </c>
       <c r="J19" s="14">
         <v>3</v>
       </c>
       <c r="K19" s="15">
-        <f>J19/J$103</f>
+        <f t="shared" si="3"/>
         <v>0.00835654596100279</v>
       </c>
       <c r="L19" s="22">
-        <f>G19/(I19+K19)*10*1.2</f>
+        <f t="shared" si="4"/>
         <v>11.1389970836998</v>
       </c>
     </row>
@@ -3070,29 +3070,29 @@
         <v>2.66666666666667</v>
       </c>
       <c r="F20" s="14">
-        <f>D20+E20</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="G20" s="15">
-        <f>F20/F$103</f>
+        <f t="shared" si="1"/>
         <v>0.0072609923356192</v>
       </c>
       <c r="H20" s="14">
         <v>2</v>
       </c>
       <c r="I20" s="15">
-        <f>H20/H$103</f>
+        <f t="shared" si="2"/>
         <v>0.0051150895140665</v>
       </c>
       <c r="J20" s="14">
         <v>1</v>
       </c>
       <c r="K20" s="15">
-        <f>J20/J$103</f>
+        <f t="shared" si="3"/>
         <v>0.00278551532033426</v>
       </c>
       <c r="L20" s="22">
-        <f>G20/(I20+K20)*10*1.2</f>
+        <f t="shared" si="4"/>
         <v>11.0285110891816</v>
       </c>
     </row>
@@ -3113,29 +3113,29 @@
         <v>4</v>
       </c>
       <c r="F21" s="10">
-        <f>D21+E21</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="G21" s="11">
-        <f>F21/F$103</f>
+        <f t="shared" si="1"/>
         <v>0.00968132311415893</v>
       </c>
       <c r="H21" s="10">
         <v>2</v>
       </c>
       <c r="I21" s="11">
-        <f>H21/H$103</f>
+        <f t="shared" si="2"/>
         <v>0.0051150895140665</v>
       </c>
       <c r="J21" s="10">
         <v>2</v>
       </c>
       <c r="K21" s="11">
-        <f>J21/J$103</f>
+        <f t="shared" si="3"/>
         <v>0.00557103064066852</v>
       </c>
       <c r="L21" s="21">
-        <f>G21/(I21+K21)*10*1.2</f>
+        <f t="shared" si="4"/>
         <v>10.871661153691</v>
       </c>
     </row>
@@ -3156,29 +3156,29 @@
         <v>3.33333333333333</v>
       </c>
       <c r="F22" s="14">
-        <f>D22+E22</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="G22" s="15">
-        <f>F22/F$103</f>
+        <f t="shared" si="1"/>
         <v>0.0121016538926987</v>
       </c>
       <c r="H22" s="14">
         <v>2</v>
       </c>
       <c r="I22" s="15">
-        <f>H22/H$103</f>
+        <f t="shared" si="2"/>
         <v>0.0051150895140665</v>
       </c>
       <c r="J22" s="14">
         <v>3</v>
       </c>
       <c r="K22" s="15">
-        <f>J22/J$103</f>
+        <f t="shared" si="3"/>
         <v>0.00835654596100279</v>
       </c>
       <c r="L22" s="22">
-        <f>G22/(I22+K22)*10*1.2</f>
+        <f t="shared" si="4"/>
         <v>10.7796745971288</v>
       </c>
     </row>
@@ -3199,29 +3199,29 @@
         <v>7</v>
       </c>
       <c r="F23" s="14">
-        <f>D23+E23</f>
+        <f t="shared" si="0"/>
         <v>13.6666666666667</v>
       </c>
       <c r="G23" s="15">
-        <f>F23/F$103</f>
+        <f t="shared" si="1"/>
         <v>0.0165389269866882</v>
       </c>
       <c r="H23" s="14">
         <v>4</v>
       </c>
       <c r="I23" s="15">
-        <f>H23/H$103</f>
+        <f t="shared" si="2"/>
         <v>0.010230179028133</v>
       </c>
       <c r="J23" s="14">
         <v>3</v>
       </c>
       <c r="K23" s="15">
-        <f>J23/J$103</f>
+        <f t="shared" si="3"/>
         <v>0.00835654596100279</v>
       </c>
       <c r="L23" s="22">
-        <f>G23/(I23+K23)*10*1.2</f>
+        <f t="shared" si="4"/>
         <v>10.6778963995145</v>
       </c>
     </row>
@@ -3242,29 +3242,29 @@
         <v>6</v>
       </c>
       <c r="F24" s="17">
-        <f>D24+E24</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="G24" s="18">
-        <f>F24/F$103</f>
+        <f t="shared" si="1"/>
         <v>0.0133118192819685</v>
       </c>
       <c r="H24" s="17">
         <v>3</v>
       </c>
       <c r="I24" s="18">
-        <f>H24/H$103</f>
+        <f t="shared" si="2"/>
         <v>0.00767263427109974</v>
       </c>
       <c r="J24" s="17">
         <v>3</v>
       </c>
       <c r="K24" s="18">
-        <f>J24/J$103</f>
+        <f t="shared" si="3"/>
         <v>0.00835654596100279</v>
       </c>
       <c r="L24" s="23">
-        <f>G24/(I24+K24)*10*1.2</f>
+        <f t="shared" si="4"/>
         <v>9.96568939088342</v>
       </c>
     </row>
@@ -3285,29 +3285,29 @@
         <v>5</v>
       </c>
       <c r="F25" s="10">
-        <f>D25+E25</f>
+        <f t="shared" si="0"/>
         <v>10.6666666666667</v>
       </c>
       <c r="G25" s="11">
-        <f>F25/F$103</f>
+        <f t="shared" si="1"/>
         <v>0.0129084308188786</v>
       </c>
       <c r="H25" s="10">
         <v>4</v>
       </c>
       <c r="I25" s="11">
-        <f>H25/H$103</f>
+        <f t="shared" si="2"/>
         <v>0.010230179028133</v>
       </c>
       <c r="J25" s="10">
         <v>2</v>
       </c>
       <c r="K25" s="11">
-        <f>J25/J$103</f>
+        <f t="shared" si="3"/>
         <v>0.00557103064066852</v>
       </c>
       <c r="L25" s="21">
-        <f>G25/(I25+K25)*10*1.2</f>
+        <f t="shared" si="4"/>
         <v>9.80312096816141</v>
       </c>
     </row>
@@ -3328,29 +3328,29 @@
         <v>5</v>
       </c>
       <c r="F26" s="14">
-        <f>D26+E26</f>
+        <f t="shared" si="0"/>
         <v>10.6666666666667</v>
       </c>
       <c r="G26" s="15">
-        <f>F26/F$103</f>
+        <f t="shared" si="1"/>
         <v>0.0129084308188786</v>
       </c>
       <c r="H26" s="14">
         <v>2</v>
       </c>
       <c r="I26" s="15">
-        <f>H26/H$103</f>
+        <f t="shared" si="2"/>
         <v>0.0051150895140665</v>
       </c>
       <c r="J26" s="14">
         <v>4</v>
       </c>
       <c r="K26" s="15">
-        <f>J26/J$103</f>
+        <f t="shared" si="3"/>
         <v>0.011142061281337</v>
       </c>
       <c r="L26" s="22">
-        <f>G26/(I26+K26)*10*1.2</f>
+        <f t="shared" si="4"/>
         <v>9.52818681305084</v>
       </c>
     </row>
@@ -3371,29 +3371,29 @@
         <v>3.33333333333333</v>
       </c>
       <c r="F27" s="10">
-        <f>D27+E27</f>
+        <f t="shared" si="0"/>
         <v>8.66666666666666</v>
       </c>
       <c r="G27" s="11">
-        <f>F27/F$103</f>
+        <f t="shared" si="1"/>
         <v>0.0104881000403388</v>
       </c>
       <c r="H27" s="10">
         <v>3</v>
       </c>
       <c r="I27" s="11">
-        <f>H27/H$103</f>
+        <f t="shared" si="2"/>
         <v>0.00767263427109974</v>
       </c>
       <c r="J27" s="10">
         <v>2</v>
       </c>
       <c r="K27" s="11">
-        <f>J27/J$103</f>
+        <f t="shared" si="3"/>
         <v>0.00557103064066852</v>
       </c>
       <c r="L27" s="21">
-        <f>G27/(I27+K27)*10*1.2</f>
+        <f t="shared" si="4"/>
         <v>9.50320030917045</v>
       </c>
     </row>
@@ -3414,29 +3414,29 @@
         <v>7.33333333333333</v>
       </c>
       <c r="F28" s="14">
-        <f>D28+E28</f>
+        <f t="shared" si="0"/>
         <v>13.3333333333333</v>
       </c>
       <c r="G28" s="15">
-        <f>F28/F$103</f>
+        <f t="shared" si="1"/>
         <v>0.0161355385235982</v>
       </c>
       <c r="H28" s="14">
         <v>4</v>
       </c>
       <c r="I28" s="15">
-        <f>H28/H$103</f>
+        <f t="shared" si="2"/>
         <v>0.010230179028133</v>
       </c>
       <c r="J28" s="14">
         <v>4</v>
       </c>
       <c r="K28" s="15">
-        <f>J28/J$103</f>
+        <f t="shared" si="3"/>
         <v>0.011142061281337</v>
       </c>
       <c r="L28" s="22">
-        <f>G28/(I28+K28)*10*1.2</f>
+        <f t="shared" si="4"/>
         <v>9.05971762807583</v>
       </c>
     </row>
@@ -3457,29 +3457,29 @@
         <v>6.66666666666667</v>
       </c>
       <c r="F29" s="10">
-        <f>D29+E29</f>
+        <f t="shared" si="0"/>
         <v>14.6666666666667</v>
       </c>
       <c r="G29" s="11">
-        <f>F29/F$103</f>
+        <f t="shared" si="1"/>
         <v>0.0177490923759581</v>
       </c>
       <c r="H29" s="10">
         <v>5</v>
       </c>
       <c r="I29" s="11">
-        <f>H29/H$103</f>
+        <f t="shared" si="2"/>
         <v>0.0127877237851662</v>
       </c>
       <c r="J29" s="10">
         <v>4</v>
       </c>
       <c r="K29" s="11">
-        <f>J29/J$103</f>
+        <f t="shared" si="3"/>
         <v>0.011142061281337</v>
       </c>
       <c r="L29" s="21">
-        <f>G29/(I29+K29)*10*1.2</f>
+        <f t="shared" si="4"/>
         <v>8.90058594005664</v>
       </c>
     </row>
@@ -3500,29 +3500,29 @@
         <v>7.33333333333333</v>
       </c>
       <c r="F30" s="10">
-        <f>D30+E30</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="G30" s="11">
-        <f>F30/F$103</f>
+        <f t="shared" si="1"/>
         <v>0.0169423154497781</v>
       </c>
       <c r="H30" s="10">
         <v>5</v>
       </c>
       <c r="I30" s="11">
-        <f>H30/H$103</f>
+        <f t="shared" si="2"/>
         <v>0.0127877237851662</v>
       </c>
       <c r="J30" s="10">
         <v>4</v>
       </c>
       <c r="K30" s="11">
-        <f>J30/J$103</f>
+        <f t="shared" si="3"/>
         <v>0.011142061281337</v>
       </c>
       <c r="L30" s="21">
-        <f>G30/(I30+K30)*10*1.2</f>
+        <f t="shared" si="4"/>
         <v>8.49601385187225</v>
       </c>
     </row>
@@ -3543,29 +3543,29 @@
         <v>6</v>
       </c>
       <c r="F31" s="14">
-        <f>D31+E31</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="G31" s="15">
-        <f>F31/F$103</f>
+        <f t="shared" si="1"/>
         <v>0.0133118192819685</v>
       </c>
       <c r="H31" s="14">
         <v>3</v>
       </c>
       <c r="I31" s="15">
-        <f>H31/H$103</f>
+        <f t="shared" si="2"/>
         <v>0.00767263427109974</v>
       </c>
       <c r="J31" s="14">
         <v>4</v>
       </c>
       <c r="K31" s="15">
-        <f>J31/J$103</f>
+        <f t="shared" si="3"/>
         <v>0.011142061281337</v>
       </c>
       <c r="L31" s="22">
-        <f>G31/(I31+K31)*10*1.2</f>
+        <f t="shared" si="4"/>
         <v>8.49026926523578</v>
       </c>
     </row>
@@ -3586,29 +3586,29 @@
         <v>5</v>
       </c>
       <c r="F32" s="17">
-        <f>D32+E32</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="G32" s="18">
-        <f>F32/F$103</f>
+        <f t="shared" si="1"/>
         <v>0.0108914885034288</v>
       </c>
       <c r="H32" s="17">
         <v>3</v>
       </c>
       <c r="I32" s="18">
-        <f>H32/H$103</f>
+        <f t="shared" si="2"/>
         <v>0.00767263427109974</v>
       </c>
       <c r="J32" s="17">
         <v>3</v>
       </c>
       <c r="K32" s="18">
-        <f>J32/J$103</f>
+        <f t="shared" si="3"/>
         <v>0.00835654596100279</v>
       </c>
       <c r="L32" s="23">
-        <f>G32/(I32+K32)*10*1.2</f>
+        <f t="shared" si="4"/>
         <v>8.15374586526825</v>
       </c>
     </row>
@@ -3629,29 +3629,29 @@
         <v>1.66666666666667</v>
       </c>
       <c r="F33" s="10">
-        <f>D33+E33</f>
+        <f t="shared" si="0"/>
         <v>4.33333333333334</v>
       </c>
       <c r="G33" s="11">
-        <f>F33/F$103</f>
+        <f t="shared" si="1"/>
         <v>0.00524405002016943</v>
       </c>
       <c r="H33" s="10">
         <v>2</v>
       </c>
       <c r="I33" s="11">
-        <f>H33/H$103</f>
+        <f t="shared" si="2"/>
         <v>0.0051150895140665</v>
       </c>
       <c r="J33" s="10">
         <v>1</v>
       </c>
       <c r="K33" s="11">
-        <f>J33/J$103</f>
+        <f t="shared" si="3"/>
         <v>0.00278551532033426</v>
       </c>
       <c r="L33" s="21">
-        <f>G33/(I33+K33)*10*1.2</f>
+        <f t="shared" si="4"/>
         <v>7.96503578663116</v>
       </c>
     </row>
@@ -3672,29 +3672,29 @@
         <v>5</v>
       </c>
       <c r="F34" s="10">
-        <f>D34+E34</f>
+        <f t="shared" si="0"/>
         <v>11.3333333333333</v>
       </c>
       <c r="G34" s="11">
-        <f>F34/F$103</f>
+        <f t="shared" si="1"/>
         <v>0.0137152077450585</v>
       </c>
       <c r="H34" s="10">
         <v>5</v>
       </c>
       <c r="I34" s="11">
-        <f>H34/H$103</f>
+        <f t="shared" si="2"/>
         <v>0.0127877237851662</v>
       </c>
       <c r="J34" s="10">
         <v>3</v>
       </c>
       <c r="K34" s="11">
-        <f>J34/J$103</f>
+        <f t="shared" si="3"/>
         <v>0.00835654596100279</v>
       </c>
       <c r="L34" s="21">
-        <f>G34/(I34+K34)*10*1.2</f>
+        <f t="shared" si="4"/>
         <v>7.7837870456851</v>
       </c>
     </row>
@@ -3715,29 +3715,29 @@
         <v>6</v>
       </c>
       <c r="F35" s="10">
-        <f>D35+E35</f>
+        <f t="shared" si="0"/>
         <v>11.3333333333333</v>
       </c>
       <c r="G35" s="11">
-        <f>F35/F$103</f>
+        <f t="shared" si="1"/>
         <v>0.0137152077450585</v>
       </c>
       <c r="H35" s="10">
         <v>4</v>
       </c>
       <c r="I35" s="11">
-        <f>H35/H$103</f>
+        <f t="shared" si="2"/>
         <v>0.010230179028133</v>
       </c>
       <c r="J35" s="10">
         <v>4</v>
       </c>
       <c r="K35" s="11">
-        <f>J35/J$103</f>
+        <f t="shared" si="3"/>
         <v>0.011142061281337</v>
       </c>
       <c r="L35" s="21">
-        <f>G35/(I35+K35)*10*1.2</f>
+        <f t="shared" si="4"/>
         <v>7.70075998386446</v>
       </c>
     </row>
@@ -3758,29 +3758,29 @@
         <v>4</v>
       </c>
       <c r="F36" s="10">
-        <f>D36+E36</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="G36" s="11">
-        <f>F36/F$103</f>
+        <f t="shared" si="1"/>
         <v>0.00847115772488907</v>
       </c>
       <c r="H36" s="10">
         <v>3</v>
       </c>
       <c r="I36" s="11">
-        <f>H36/H$103</f>
+        <f t="shared" si="2"/>
         <v>0.00767263427109974</v>
       </c>
       <c r="J36" s="10">
         <v>2</v>
       </c>
       <c r="K36" s="11">
-        <f>J36/J$103</f>
+        <f t="shared" si="3"/>
         <v>0.00557103064066852</v>
       </c>
       <c r="L36" s="21">
-        <f>G36/(I36+K36)*10*1.2</f>
+        <f t="shared" si="4"/>
         <v>7.67566178817614</v>
       </c>
     </row>
@@ -3801,29 +3801,29 @@
         <v>4</v>
       </c>
       <c r="F37" s="17">
-        <f>D37+E37</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="G37" s="18">
-        <f>F37/F$103</f>
+        <f t="shared" si="1"/>
         <v>0.00847115772488907</v>
       </c>
       <c r="H37" s="17">
         <v>3</v>
       </c>
       <c r="I37" s="18">
-        <f>H37/H$103</f>
+        <f t="shared" si="2"/>
         <v>0.00767263427109974</v>
       </c>
       <c r="J37" s="17">
         <v>2</v>
       </c>
       <c r="K37" s="18">
-        <f>J37/J$103</f>
+        <f t="shared" si="3"/>
         <v>0.00557103064066852</v>
       </c>
       <c r="L37" s="23">
-        <f>G37/(I37+K37)*10*1.2</f>
+        <f t="shared" si="4"/>
         <v>7.67566178817614</v>
       </c>
     </row>
@@ -3844,29 +3844,29 @@
         <v>4</v>
       </c>
       <c r="F38" s="17">
-        <f>D38+E38</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="G38" s="18">
-        <f>F38/F$103</f>
+        <f t="shared" si="1"/>
         <v>0.00847115772488907</v>
       </c>
       <c r="H38" s="17">
         <v>3</v>
       </c>
       <c r="I38" s="18">
-        <f>H38/H$103</f>
+        <f t="shared" si="2"/>
         <v>0.00767263427109974</v>
       </c>
       <c r="J38" s="17">
         <v>2</v>
       </c>
       <c r="K38" s="18">
-        <f>J38/J$103</f>
+        <f t="shared" si="3"/>
         <v>0.00557103064066852</v>
       </c>
       <c r="L38" s="23">
-        <f>G38/(I38+K38)*10*1.2</f>
+        <f t="shared" si="4"/>
         <v>7.67566178817614</v>
       </c>
     </row>
@@ -3887,29 +3887,29 @@
         <v>5.33333333333333</v>
       </c>
       <c r="F39" s="14">
-        <f>D39+E39</f>
+        <f t="shared" si="0"/>
         <v>9.66666666666666</v>
       </c>
       <c r="G39" s="15">
-        <f>F39/F$103</f>
+        <f t="shared" si="1"/>
         <v>0.0116982654296087</v>
       </c>
       <c r="H39" s="14">
         <v>4</v>
       </c>
       <c r="I39" s="15">
-        <f>H39/H$103</f>
+        <f t="shared" si="2"/>
         <v>0.010230179028133</v>
       </c>
       <c r="J39" s="14">
         <v>3</v>
       </c>
       <c r="K39" s="15">
-        <f>J39/J$103</f>
+        <f t="shared" si="3"/>
         <v>0.00835654596100279</v>
       </c>
       <c r="L39" s="22">
-        <f>G39/(I39+K39)*10*1.2</f>
+        <f t="shared" si="4"/>
         <v>7.55265842892485</v>
       </c>
     </row>
@@ -3930,29 +3930,29 @@
         <v>7.33333333333333</v>
       </c>
       <c r="F40" s="10">
-        <f>D40+E40</f>
+        <f t="shared" si="0"/>
         <v>13.3333333333333</v>
       </c>
       <c r="G40" s="11">
-        <f>F40/F$103</f>
+        <f t="shared" si="1"/>
         <v>0.0161355385235982</v>
       </c>
       <c r="H40" s="10">
         <v>5</v>
       </c>
       <c r="I40" s="11">
-        <f>H40/H$103</f>
+        <f t="shared" si="2"/>
         <v>0.0127877237851662</v>
       </c>
       <c r="J40" s="10">
         <v>5</v>
       </c>
       <c r="K40" s="11">
-        <f>J40/J$103</f>
+        <f t="shared" si="3"/>
         <v>0.0139275766016713</v>
       </c>
       <c r="L40" s="21">
-        <f>G40/(I40+K40)*10*1.2</f>
+        <f t="shared" si="4"/>
         <v>7.24777410246067</v>
       </c>
     </row>
@@ -3973,29 +3973,29 @@
         <v>7.33333333333333</v>
       </c>
       <c r="F41" s="14">
-        <f>D41+E41</f>
+        <f t="shared" si="0"/>
         <v>14.6666666666667</v>
       </c>
       <c r="G41" s="15">
-        <f>F41/F$103</f>
+        <f t="shared" si="1"/>
         <v>0.017749092375958</v>
       </c>
       <c r="H41" s="14">
         <v>5</v>
       </c>
       <c r="I41" s="15">
-        <f>H41/H$103</f>
+        <f t="shared" si="2"/>
         <v>0.0127877237851662</v>
       </c>
       <c r="J41" s="14">
         <v>6</v>
       </c>
       <c r="K41" s="15">
-        <f>J41/J$103</f>
+        <f t="shared" si="3"/>
         <v>0.0167130919220056</v>
       </c>
       <c r="L41" s="22">
-        <f>G41/(I41+K41)*10*1.2</f>
+        <f t="shared" si="4"/>
         <v>7.21977014553254</v>
       </c>
     </row>
@@ -4016,29 +4016,29 @@
         <v>4.66666666666667</v>
       </c>
       <c r="F42" s="10">
-        <f>D42+E42</f>
+        <f t="shared" si="0"/>
         <v>7.66666666666667</v>
       </c>
       <c r="G42" s="11">
-        <f>F42/F$103</f>
+        <f t="shared" si="1"/>
         <v>0.00927793465106898</v>
       </c>
       <c r="H42" s="10">
         <v>3</v>
       </c>
       <c r="I42" s="11">
-        <f>H42/H$103</f>
+        <f t="shared" si="2"/>
         <v>0.00767263427109974</v>
       </c>
       <c r="J42" s="10">
         <v>3</v>
       </c>
       <c r="K42" s="11">
-        <f>J42/J$103</f>
+        <f t="shared" si="3"/>
         <v>0.00835654596100279</v>
       </c>
       <c r="L42" s="21">
-        <f>G42/(I42+K42)*10*1.2</f>
+        <f t="shared" si="4"/>
         <v>6.94578351485815</v>
       </c>
     </row>
@@ -4059,29 +4059,29 @@
         <v>2</v>
       </c>
       <c r="F43" s="10">
-        <f>D43+E43</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G43" s="11">
-        <f>F43/F$103</f>
+        <f t="shared" si="1"/>
         <v>0.00605082694634933</v>
       </c>
       <c r="H43" s="10">
         <v>3</v>
       </c>
       <c r="I43" s="11">
-        <f>H43/H$103</f>
+        <f t="shared" si="2"/>
         <v>0.00767263427109974</v>
       </c>
       <c r="J43" s="10">
         <v>1</v>
       </c>
       <c r="K43" s="11">
-        <f>J43/J$103</f>
+        <f t="shared" si="3"/>
         <v>0.00278551532033426</v>
       </c>
       <c r="L43" s="21">
-        <f>G43/(I43+K43)*10*1.2</f>
+        <f t="shared" si="4"/>
         <v>6.94290349563032</v>
       </c>
     </row>
@@ -4102,29 +4102,29 @@
         <v>6</v>
       </c>
       <c r="F44" s="14">
-        <f>D44+E44</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="G44" s="15">
-        <f>F44/F$103</f>
+        <f t="shared" si="1"/>
         <v>0.0133118192819685</v>
       </c>
       <c r="H44" s="14">
         <v>5</v>
       </c>
       <c r="I44" s="15">
-        <f>H44/H$103</f>
+        <f t="shared" si="2"/>
         <v>0.0127877237851662</v>
       </c>
       <c r="J44" s="14">
         <v>4</v>
       </c>
       <c r="K44" s="15">
-        <f>J44/J$103</f>
+        <f t="shared" si="3"/>
         <v>0.011142061281337</v>
       </c>
       <c r="L44" s="22">
-        <f>G44/(I44+K44)*10*1.2</f>
+        <f t="shared" si="4"/>
         <v>6.67543945504248</v>
       </c>
     </row>
@@ -4145,29 +4145,29 @@
         <v>5.66666666666667</v>
       </c>
       <c r="F45" s="10">
-        <f>D45+E45</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="G45" s="11">
-        <f>F45/F$103</f>
+        <f t="shared" si="1"/>
         <v>0.0133118192819685</v>
       </c>
       <c r="H45" s="10">
         <v>5</v>
       </c>
       <c r="I45" s="11">
-        <f>H45/H$103</f>
+        <f t="shared" si="2"/>
         <v>0.0127877237851662</v>
       </c>
       <c r="J45" s="10">
         <v>4</v>
       </c>
       <c r="K45" s="11">
-        <f>J45/J$103</f>
+        <f t="shared" si="3"/>
         <v>0.011142061281337</v>
       </c>
       <c r="L45" s="21">
-        <f>G45/(I45+K45)*10*1.2</f>
+        <f t="shared" si="4"/>
         <v>6.67543945504248</v>
       </c>
     </row>
@@ -4188,29 +4188,29 @@
         <v>2</v>
       </c>
       <c r="F46" s="10">
-        <f>D46+E46</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="G46" s="11">
-        <f>F46/F$103</f>
+        <f t="shared" si="1"/>
         <v>0.0072609923356192</v>
       </c>
       <c r="H46" s="10">
         <v>3</v>
       </c>
       <c r="I46" s="11">
-        <f>H46/H$103</f>
+        <f t="shared" si="2"/>
         <v>0.00767263427109974</v>
       </c>
       <c r="J46" s="10">
         <v>2</v>
       </c>
       <c r="K46" s="11">
-        <f>J46/J$103</f>
+        <f t="shared" si="3"/>
         <v>0.00557103064066852</v>
       </c>
       <c r="L46" s="21">
-        <f>G46/(I46+K46)*10*1.2</f>
+        <f t="shared" si="4"/>
         <v>6.57913867557955</v>
       </c>
     </row>
@@ -4231,29 +4231,29 @@
         <v>6.66666666666667</v>
       </c>
       <c r="F47" s="14">
-        <f>D47+E47</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="G47" s="15">
-        <f>F47/F$103</f>
+        <f t="shared" si="1"/>
         <v>0.0157321500605083</v>
       </c>
       <c r="H47" s="14">
         <v>5</v>
       </c>
       <c r="I47" s="15">
-        <f>H47/H$103</f>
+        <f t="shared" si="2"/>
         <v>0.0127877237851662</v>
       </c>
       <c r="J47" s="14">
         <v>6</v>
       </c>
       <c r="K47" s="15">
-        <f>J47/J$103</f>
+        <f t="shared" si="3"/>
         <v>0.0167130919220056</v>
       </c>
       <c r="L47" s="22">
-        <f>G47/(I47+K47)*10*1.2</f>
+        <f t="shared" si="4"/>
         <v>6.39934171990384</v>
       </c>
     </row>
@@ -4274,29 +4274,29 @@
         <v>6.33333333333333</v>
       </c>
       <c r="F48" s="10">
-        <f>D48+E48</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="G48" s="11">
-        <f>F48/F$103</f>
+        <f t="shared" si="1"/>
         <v>0.0157321500605083</v>
       </c>
       <c r="H48" s="10">
         <v>5</v>
       </c>
       <c r="I48" s="11">
-        <f>H48/H$103</f>
+        <f t="shared" si="2"/>
         <v>0.0127877237851662</v>
       </c>
       <c r="J48" s="10">
         <v>6</v>
       </c>
       <c r="K48" s="11">
-        <f>J48/J$103</f>
+        <f t="shared" si="3"/>
         <v>0.0167130919220056</v>
       </c>
       <c r="L48" s="21">
-        <f>G48/(I48+K48)*10*1.2</f>
+        <f t="shared" si="4"/>
         <v>6.39934171990384</v>
       </c>
     </row>
@@ -4317,29 +4317,29 @@
         <v>4</v>
       </c>
       <c r="F49" s="10">
-        <f>D49+E49</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="G49" s="11">
-        <f>F49/F$103</f>
+        <f t="shared" si="1"/>
         <v>0.0108914885034288</v>
       </c>
       <c r="H49" s="10">
         <v>4</v>
       </c>
       <c r="I49" s="11">
-        <f>H49/H$103</f>
+        <f t="shared" si="2"/>
         <v>0.010230179028133</v>
       </c>
       <c r="J49" s="10">
         <v>4</v>
       </c>
       <c r="K49" s="11">
-        <f>J49/J$103</f>
+        <f t="shared" si="3"/>
         <v>0.011142061281337</v>
       </c>
       <c r="L49" s="21">
-        <f>G49/(I49+K49)*10*1.2</f>
+        <f t="shared" si="4"/>
         <v>6.11530939895119</v>
       </c>
     </row>
@@ -4360,29 +4360,29 @@
         <v>5</v>
       </c>
       <c r="F50" s="17">
-        <f>D50+E50</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="G50" s="18">
-        <f>F50/F$103</f>
+        <f t="shared" si="1"/>
         <v>0.0108914885034288</v>
       </c>
       <c r="H50" s="17">
         <v>4</v>
       </c>
       <c r="I50" s="18">
-        <f>H50/H$103</f>
+        <f t="shared" si="2"/>
         <v>0.010230179028133</v>
       </c>
       <c r="J50" s="17">
         <v>4</v>
       </c>
       <c r="K50" s="18">
-        <f>J50/J$103</f>
+        <f t="shared" si="3"/>
         <v>0.011142061281337</v>
       </c>
       <c r="L50" s="23">
-        <f>G50/(I50+K50)*10*1.2</f>
+        <f t="shared" si="4"/>
         <v>6.11530939895119</v>
       </c>
     </row>
@@ -4403,29 +4403,29 @@
         <v>4</v>
       </c>
       <c r="F51" s="14">
-        <f>D51+E51</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="G51" s="15">
-        <f>F51/F$103</f>
+        <f t="shared" si="1"/>
         <v>0.0121016538926987</v>
       </c>
       <c r="H51" s="14">
         <v>5</v>
       </c>
       <c r="I51" s="15">
-        <f>H51/H$103</f>
+        <f t="shared" si="2"/>
         <v>0.0127877237851662</v>
       </c>
       <c r="J51" s="14">
         <v>4</v>
       </c>
       <c r="K51" s="15">
-        <f>J51/J$103</f>
+        <f t="shared" si="3"/>
         <v>0.011142061281337</v>
       </c>
       <c r="L51" s="22">
-        <f>G51/(I51+K51)*10*1.2</f>
+        <f t="shared" si="4"/>
         <v>6.06858132276589</v>
       </c>
     </row>
@@ -4446,29 +4446,29 @@
         <v>2.66666666666667</v>
       </c>
       <c r="F52" s="10">
-        <f>D52+E52</f>
+        <f t="shared" si="0"/>
         <v>6.33333333333334</v>
       </c>
       <c r="G52" s="11">
-        <f>F52/F$103</f>
+        <f t="shared" si="1"/>
         <v>0.00766438079870916</v>
       </c>
       <c r="H52" s="10">
         <v>5</v>
       </c>
       <c r="I52" s="11">
-        <f>H52/H$103</f>
+        <f t="shared" si="2"/>
         <v>0.0127877237851662</v>
       </c>
       <c r="J52" s="10">
         <v>1</v>
       </c>
       <c r="K52" s="11">
-        <f>J52/J$103</f>
+        <f t="shared" si="3"/>
         <v>0.00278551532033426</v>
       </c>
       <c r="L52" s="21">
-        <f>G52/(I52+K52)*10*1.2</f>
+        <f t="shared" si="4"/>
         <v>5.90580860933581</v>
       </c>
     </row>
@@ -4489,29 +4489,29 @@
         <v>4.66666666666667</v>
       </c>
       <c r="F53" s="10">
-        <f>D53+E53</f>
+        <f t="shared" si="0"/>
         <v>9.66666666666667</v>
       </c>
       <c r="G53" s="11">
-        <f>F53/F$103</f>
+        <f t="shared" si="1"/>
         <v>0.0116982654296087</v>
       </c>
       <c r="H53" s="10">
         <v>5</v>
       </c>
       <c r="I53" s="11">
-        <f>H53/H$103</f>
+        <f t="shared" si="2"/>
         <v>0.0127877237851662</v>
       </c>
       <c r="J53" s="10">
         <v>4</v>
       </c>
       <c r="K53" s="11">
-        <f>J53/J$103</f>
+        <f t="shared" si="3"/>
         <v>0.011142061281337</v>
       </c>
       <c r="L53" s="21">
-        <f>G53/(I53+K53)*10*1.2</f>
+        <f t="shared" si="4"/>
         <v>5.8662952786737</v>
       </c>
     </row>
@@ -4532,29 +4532,29 @@
         <v>4.33333333333333</v>
       </c>
       <c r="F54" s="10">
-        <f>D54+E54</f>
+        <f t="shared" si="0"/>
         <v>10.6666666666667</v>
       </c>
       <c r="G54" s="11">
-        <f>F54/F$103</f>
+        <f t="shared" si="1"/>
         <v>0.0129084308188786</v>
       </c>
       <c r="H54" s="10">
         <v>6</v>
       </c>
       <c r="I54" s="11">
-        <f>H54/H$103</f>
+        <f t="shared" si="2"/>
         <v>0.0153452685421995</v>
       </c>
       <c r="J54" s="10">
         <v>4</v>
       </c>
       <c r="K54" s="11">
-        <f>J54/J$103</f>
+        <f t="shared" si="3"/>
         <v>0.011142061281337</v>
       </c>
       <c r="L54" s="21">
-        <f>G54/(I54+K54)*10*1.2</f>
+        <f t="shared" si="4"/>
         <v>5.84812326718182</v>
       </c>
     </row>
@@ -4575,29 +4575,29 @@
         <v>4</v>
       </c>
       <c r="F55" s="10">
-        <f>D55+E55</f>
+        <f t="shared" si="0"/>
         <v>7.33333333333333</v>
       </c>
       <c r="G55" s="11">
-        <f>F55/F$103</f>
+        <f t="shared" si="1"/>
         <v>0.00887454618797902</v>
       </c>
       <c r="H55" s="10">
         <v>3</v>
       </c>
       <c r="I55" s="11">
-        <f>H55/H$103</f>
+        <f t="shared" si="2"/>
         <v>0.00767263427109974</v>
       </c>
       <c r="J55" s="10">
         <v>4</v>
       </c>
       <c r="K55" s="11">
-        <f>J55/J$103</f>
+        <f t="shared" si="3"/>
         <v>0.011142061281337</v>
       </c>
       <c r="L55" s="21">
-        <f>G55/(I55+K55)*10*1.2</f>
+        <f t="shared" si="4"/>
         <v>5.66017951015718</v>
       </c>
     </row>
@@ -4618,29 +4618,29 @@
         <v>5.33333333333333</v>
       </c>
       <c r="F56" s="14">
-        <f>D56+E56</f>
+        <f t="shared" si="0"/>
         <v>10.3333333333333</v>
       </c>
       <c r="G56" s="15">
-        <f>F56/F$103</f>
+        <f t="shared" si="1"/>
         <v>0.0125050423557886</v>
       </c>
       <c r="H56" s="14">
         <v>5</v>
       </c>
       <c r="I56" s="15">
-        <f>H56/H$103</f>
+        <f t="shared" si="2"/>
         <v>0.0127877237851662</v>
       </c>
       <c r="J56" s="14">
         <v>5</v>
       </c>
       <c r="K56" s="15">
-        <f>J56/J$103</f>
+        <f t="shared" si="3"/>
         <v>0.0139275766016713</v>
       </c>
       <c r="L56" s="22">
-        <f>G56/(I56+K56)*10*1.2</f>
+        <f t="shared" si="4"/>
         <v>5.61702492940702</v>
       </c>
     </row>
@@ -4661,29 +4661,29 @@
         <v>4</v>
       </c>
       <c r="F57" s="10">
-        <f>D57+E57</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="G57" s="11">
-        <f>F57/F$103</f>
+        <f t="shared" si="1"/>
         <v>0.00847115772488907</v>
       </c>
       <c r="H57" s="10">
         <v>4</v>
       </c>
       <c r="I57" s="11">
-        <f>H57/H$103</f>
+        <f t="shared" si="2"/>
         <v>0.010230179028133</v>
       </c>
       <c r="J57" s="10">
         <v>3</v>
       </c>
       <c r="K57" s="11">
-        <f>J57/J$103</f>
+        <f t="shared" si="3"/>
         <v>0.00835654596100279</v>
       </c>
       <c r="L57" s="21">
-        <f>G57/(I57+K57)*10*1.2</f>
+        <f t="shared" si="4"/>
         <v>5.46916644853179</v>
       </c>
     </row>
@@ -4704,29 +4704,29 @@
         <v>5</v>
       </c>
       <c r="F58" s="17">
-        <f>D58+E58</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="G58" s="18">
-        <f>F58/F$103</f>
+        <f t="shared" si="1"/>
         <v>0.0108914885034288</v>
       </c>
       <c r="H58" s="17">
         <v>5</v>
       </c>
       <c r="I58" s="18">
-        <f>H58/H$103</f>
+        <f t="shared" si="2"/>
         <v>0.0127877237851662</v>
       </c>
       <c r="J58" s="17">
         <v>4</v>
       </c>
       <c r="K58" s="18">
-        <f>J58/J$103</f>
+        <f t="shared" si="3"/>
         <v>0.011142061281337</v>
       </c>
       <c r="L58" s="23">
-        <f>G58/(I58+K58)*10*1.2</f>
+        <f t="shared" si="4"/>
         <v>5.4617231904893</v>
       </c>
     </row>
@@ -4747,29 +4747,29 @@
         <v>3</v>
       </c>
       <c r="F59" s="17">
-        <f>D59+E59</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="G59" s="18">
-        <f>F59/F$103</f>
+        <f t="shared" si="1"/>
         <v>0.00968132311415893</v>
       </c>
       <c r="H59" s="17">
         <v>4</v>
       </c>
       <c r="I59" s="18">
-        <f>H59/H$103</f>
+        <f t="shared" si="2"/>
         <v>0.010230179028133</v>
       </c>
       <c r="J59" s="17">
         <v>4</v>
       </c>
       <c r="K59" s="18">
-        <f>J59/J$103</f>
+        <f t="shared" si="3"/>
         <v>0.011142061281337</v>
       </c>
       <c r="L59" s="23">
-        <f>G59/(I59+K59)*10*1.2</f>
+        <f t="shared" si="4"/>
         <v>5.4358305768455</v>
       </c>
     </row>
@@ -4790,29 +4790,29 @@
         <v>4</v>
       </c>
       <c r="F60" s="17">
-        <f>D60+E60</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="G60" s="18">
-        <f>F60/F$103</f>
+        <f t="shared" si="1"/>
         <v>0.0121016538926987</v>
       </c>
       <c r="H60" s="17">
         <v>5</v>
       </c>
       <c r="I60" s="18">
-        <f>H60/H$103</f>
+        <f t="shared" si="2"/>
         <v>0.0127877237851662</v>
       </c>
       <c r="J60" s="17">
         <v>5</v>
       </c>
       <c r="K60" s="18">
-        <f>J60/J$103</f>
+        <f t="shared" si="3"/>
         <v>0.0139275766016713</v>
       </c>
       <c r="L60" s="23">
-        <f>G60/(I60+K60)*10*1.2</f>
+        <f t="shared" si="4"/>
         <v>5.4358305768455</v>
       </c>
     </row>
@@ -4833,29 +4833,29 @@
         <v>5.33333333333333</v>
       </c>
       <c r="F61" s="14">
-        <f>D61+E61</f>
+        <f t="shared" si="0"/>
         <v>10.6666666666667</v>
       </c>
       <c r="G61" s="15">
-        <f>F61/F$103</f>
+        <f t="shared" si="1"/>
         <v>0.0129084308188786</v>
       </c>
       <c r="H61" s="14">
         <v>6</v>
       </c>
       <c r="I61" s="15">
-        <f>H61/H$103</f>
+        <f t="shared" si="2"/>
         <v>0.0153452685421995</v>
       </c>
       <c r="J61" s="14">
         <v>5</v>
       </c>
       <c r="K61" s="15">
-        <f>J61/J$103</f>
+        <f t="shared" si="3"/>
         <v>0.0139275766016713</v>
       </c>
       <c r="L61" s="22">
-        <f>G61/(I61+K61)*10*1.2</f>
+        <f t="shared" si="4"/>
         <v>5.29163356227354</v>
       </c>
     </row>
@@ -4876,29 +4876,29 @@
         <v>4</v>
       </c>
       <c r="F62" s="10">
-        <f>D62+E62</f>
+        <f t="shared" si="0"/>
         <v>9.33333333333333</v>
       </c>
       <c r="G62" s="11">
-        <f>F62/F$103</f>
+        <f t="shared" si="1"/>
         <v>0.0112948769665188</v>
       </c>
       <c r="H62" s="10">
         <v>4</v>
       </c>
       <c r="I62" s="11">
-        <f>H62/H$103</f>
+        <f t="shared" si="2"/>
         <v>0.010230179028133</v>
       </c>
       <c r="J62" s="10">
         <v>6</v>
       </c>
       <c r="K62" s="11">
-        <f>J62/J$103</f>
+        <f t="shared" si="3"/>
         <v>0.0167130919220056</v>
       </c>
       <c r="L62" s="21">
-        <f>G62/(I62+K62)*10*1.2</f>
+        <f t="shared" si="4"/>
         <v>5.03051481199346</v>
       </c>
     </row>
@@ -4919,29 +4919,29 @@
         <v>5</v>
       </c>
       <c r="F63" s="17">
-        <f>D63+E63</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="G63" s="18">
-        <f>F63/F$103</f>
+        <f t="shared" si="1"/>
         <v>0.0133118192819685</v>
       </c>
       <c r="H63" s="17">
         <v>6</v>
       </c>
       <c r="I63" s="18">
-        <f>H63/H$103</f>
+        <f t="shared" si="2"/>
         <v>0.0153452685421995</v>
       </c>
       <c r="J63" s="17">
         <v>6</v>
       </c>
       <c r="K63" s="18">
-        <f>J63/J$103</f>
+        <f t="shared" si="3"/>
         <v>0.0167130919220056</v>
       </c>
       <c r="L63" s="23">
-        <f>G63/(I63+K63)*10*1.2</f>
+        <f t="shared" si="4"/>
         <v>4.98284469544171</v>
       </c>
     </row>
@@ -4962,29 +4962,29 @@
         <v>4.33333333333333</v>
       </c>
       <c r="F64" s="14">
-        <f>D64+E64</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="G64" s="15">
-        <f>F64/F$103</f>
+        <f t="shared" si="1"/>
         <v>0.0121016538926987</v>
       </c>
       <c r="H64" s="14">
         <v>6</v>
       </c>
       <c r="I64" s="15">
-        <f>H64/H$103</f>
+        <f t="shared" si="2"/>
         <v>0.0153452685421995</v>
       </c>
       <c r="J64" s="14">
         <v>5</v>
       </c>
       <c r="K64" s="15">
-        <f>J64/J$103</f>
+        <f t="shared" si="3"/>
         <v>0.0139275766016713</v>
       </c>
       <c r="L64" s="22">
-        <f>G64/(I64+K64)*10*1.2</f>
+        <f t="shared" si="4"/>
         <v>4.96090646463145</v>
       </c>
     </row>
@@ -5005,29 +5005,29 @@
         <v>4</v>
       </c>
       <c r="F65" s="14">
-        <f>D65+E65</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="G65" s="15">
-        <f>F65/F$103</f>
+        <f t="shared" si="1"/>
         <v>0.0108914885034288</v>
       </c>
       <c r="H65" s="14">
         <v>6</v>
       </c>
       <c r="I65" s="15">
-        <f>H65/H$103</f>
+        <f t="shared" si="2"/>
         <v>0.0153452685421995</v>
       </c>
       <c r="J65" s="14">
         <v>4</v>
       </c>
       <c r="K65" s="15">
-        <f>J65/J$103</f>
+        <f t="shared" si="3"/>
         <v>0.011142061281337</v>
       </c>
       <c r="L65" s="22">
-        <f>G65/(I65+K65)*10*1.2</f>
+        <f t="shared" si="4"/>
         <v>4.93435400668466</v>
       </c>
     </row>
@@ -5048,29 +5048,29 @@
         <v>5</v>
       </c>
       <c r="F66" s="17">
-        <f>D66+E66</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="G66" s="18">
-        <f>F66/F$103</f>
+        <f t="shared" si="1"/>
         <v>0.0108914885034288</v>
       </c>
       <c r="H66" s="17">
         <v>5</v>
       </c>
       <c r="I66" s="18">
-        <f>H66/H$103</f>
+        <f t="shared" si="2"/>
         <v>0.0127877237851662</v>
       </c>
       <c r="J66" s="17">
         <v>5</v>
       </c>
       <c r="K66" s="18">
-        <f>J66/J$103</f>
+        <f t="shared" si="3"/>
         <v>0.0139275766016713</v>
       </c>
       <c r="L66" s="23">
-        <f>G66/(I66+K66)*10*1.2</f>
+        <f t="shared" si="4"/>
         <v>4.89224751916095</v>
       </c>
     </row>
@@ -5091,29 +5091,29 @@
         <v>4</v>
       </c>
       <c r="F67" s="17">
-        <f>D67+E67</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="G67" s="18">
-        <f>F67/F$103</f>
+        <f t="shared" si="1"/>
         <v>0.0108914885034288</v>
       </c>
       <c r="H67" s="17">
         <v>5</v>
       </c>
       <c r="I67" s="18">
-        <f>H67/H$103</f>
+        <f t="shared" si="2"/>
         <v>0.0127877237851662</v>
       </c>
       <c r="J67" s="17">
         <v>5</v>
       </c>
       <c r="K67" s="18">
-        <f>J67/J$103</f>
+        <f t="shared" si="3"/>
         <v>0.0139275766016713</v>
       </c>
       <c r="L67" s="23">
-        <f>G67/(I67+K67)*10*1.2</f>
+        <f t="shared" si="4"/>
         <v>4.89224751916095</v>
       </c>
     </row>
@@ -5134,29 +5134,29 @@
         <v>4</v>
       </c>
       <c r="F68" s="17">
-        <f>D68+E68</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="G68" s="18">
-        <f>F68/F$103</f>
+        <f t="shared" si="1"/>
         <v>0.0108914885034288</v>
       </c>
       <c r="H68" s="17">
         <v>5</v>
       </c>
       <c r="I68" s="18">
-        <f>H68/H$103</f>
+        <f t="shared" si="2"/>
         <v>0.0127877237851662</v>
       </c>
       <c r="J68" s="17">
         <v>5</v>
       </c>
       <c r="K68" s="18">
-        <f>J68/J$103</f>
+        <f t="shared" si="3"/>
         <v>0.0139275766016713</v>
       </c>
       <c r="L68" s="23">
-        <f>G68/(I68+K68)*10*1.2</f>
+        <f t="shared" si="4"/>
         <v>4.89224751916095</v>
       </c>
     </row>
@@ -5177,29 +5177,29 @@
         <v>4</v>
       </c>
       <c r="F69" s="17">
-        <f>D69+E69</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="G69" s="18">
-        <f>F69/F$103</f>
+        <f t="shared" si="1"/>
         <v>0.0108914885034288</v>
       </c>
       <c r="H69" s="17">
         <v>5</v>
       </c>
       <c r="I69" s="18">
-        <f>H69/H$103</f>
+        <f t="shared" si="2"/>
         <v>0.0127877237851662</v>
       </c>
       <c r="J69" s="17">
         <v>5</v>
       </c>
       <c r="K69" s="18">
-        <f>J69/J$103</f>
+        <f t="shared" si="3"/>
         <v>0.0139275766016713</v>
       </c>
       <c r="L69" s="23">
-        <f>G69/(I69+K69)*10*1.2</f>
+        <f t="shared" si="4"/>
         <v>4.89224751916095</v>
       </c>
     </row>
@@ -5220,29 +5220,29 @@
         <v>4</v>
       </c>
       <c r="F70" s="14">
-        <f>D70+E70</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="G70" s="15">
-        <f>F70/F$103</f>
+        <f t="shared" si="1"/>
         <v>0.00968132311415893</v>
       </c>
       <c r="H70" s="14">
         <v>4</v>
       </c>
       <c r="I70" s="15">
-        <f>H70/H$103</f>
+        <f t="shared" si="2"/>
         <v>0.010230179028133</v>
       </c>
       <c r="J70" s="14">
         <v>5</v>
       </c>
       <c r="K70" s="15">
-        <f>J70/J$103</f>
+        <f t="shared" si="3"/>
         <v>0.0139275766016713</v>
       </c>
       <c r="L70" s="22">
-        <f>G70/(I70+K70)*10*1.2</f>
+        <f t="shared" si="4"/>
         <v>4.80905093793468</v>
       </c>
     </row>
@@ -5263,29 +5263,29 @@
         <v>4</v>
       </c>
       <c r="F71" s="10">
-        <f>D71+E71</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="G71" s="11">
-        <f>F71/F$103</f>
+        <f t="shared" si="1"/>
         <v>0.00968132311415893</v>
       </c>
       <c r="H71" s="10">
         <v>4</v>
       </c>
       <c r="I71" s="11">
-        <f>H71/H$103</f>
+        <f t="shared" si="2"/>
         <v>0.010230179028133</v>
       </c>
       <c r="J71" s="10">
         <v>5</v>
       </c>
       <c r="K71" s="11">
-        <f>J71/J$103</f>
+        <f t="shared" si="3"/>
         <v>0.0139275766016713</v>
       </c>
       <c r="L71" s="21">
-        <f>G71/(I71+K71)*10*1.2</f>
+        <f t="shared" si="4"/>
         <v>4.80905093793468</v>
       </c>
     </row>
@@ -5306,29 +5306,29 @@
         <v>4</v>
       </c>
       <c r="F72" s="10">
-        <f>D72+E72</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="G72" s="11">
-        <f>F72/F$103</f>
+        <f t="shared" si="1"/>
         <v>0.00847115772488907</v>
       </c>
       <c r="H72" s="10">
         <v>4</v>
       </c>
       <c r="I72" s="11">
-        <f>H72/H$103</f>
+        <f t="shared" si="2"/>
         <v>0.010230179028133</v>
       </c>
       <c r="J72" s="10">
         <v>4</v>
       </c>
       <c r="K72" s="11">
-        <f>J72/J$103</f>
+        <f t="shared" si="3"/>
         <v>0.011142061281337</v>
       </c>
       <c r="L72" s="21">
-        <f>G72/(I72+K72)*10*1.2</f>
+        <f t="shared" si="4"/>
         <v>4.75635175473981</v>
       </c>
     </row>
@@ -5349,29 +5349,29 @@
         <v>4</v>
       </c>
       <c r="F73" s="10">
-        <f>D73+E73</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="G73" s="11">
-        <f>F73/F$103</f>
+        <f t="shared" si="1"/>
         <v>0.00847115772488907</v>
       </c>
       <c r="H73" s="10">
         <v>4</v>
       </c>
       <c r="I73" s="11">
-        <f>H73/H$103</f>
+        <f t="shared" si="2"/>
         <v>0.010230179028133</v>
       </c>
       <c r="J73" s="10">
         <v>4</v>
       </c>
       <c r="K73" s="11">
-        <f>J73/J$103</f>
+        <f t="shared" si="3"/>
         <v>0.011142061281337</v>
       </c>
       <c r="L73" s="21">
-        <f>G73/(I73+K73)*10*1.2</f>
+        <f t="shared" si="4"/>
         <v>4.75635175473981</v>
       </c>
     </row>
@@ -5392,29 +5392,29 @@
         <v>3</v>
       </c>
       <c r="F74" s="17">
-        <f>D74+E74</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="G74" s="18">
-        <f>F74/F$103</f>
+        <f t="shared" si="1"/>
         <v>0.00847115772488907</v>
       </c>
       <c r="H74" s="17">
         <v>4</v>
       </c>
       <c r="I74" s="18">
-        <f>H74/H$103</f>
+        <f t="shared" si="2"/>
         <v>0.010230179028133</v>
       </c>
       <c r="J74" s="17">
         <v>4</v>
       </c>
       <c r="K74" s="18">
-        <f>J74/J$103</f>
+        <f t="shared" si="3"/>
         <v>0.011142061281337</v>
       </c>
       <c r="L74" s="23">
-        <f>G74/(I74+K74)*10*1.2</f>
+        <f t="shared" si="4"/>
         <v>4.75635175473981</v>
       </c>
     </row>
@@ -5435,29 +5435,29 @@
         <v>4</v>
       </c>
       <c r="F75" s="17">
-        <f>D75+E75</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="G75" s="18">
-        <f>F75/F$103</f>
+        <f t="shared" si="1"/>
         <v>0.0072609923356192</v>
       </c>
       <c r="H75" s="17">
         <v>4</v>
       </c>
       <c r="I75" s="18">
-        <f>H75/H$103</f>
+        <f t="shared" si="2"/>
         <v>0.010230179028133</v>
       </c>
       <c r="J75" s="17">
         <v>3</v>
       </c>
       <c r="K75" s="18">
-        <f>J75/J$103</f>
+        <f t="shared" si="3"/>
         <v>0.00835654596100279</v>
       </c>
       <c r="L75" s="23">
-        <f>G75/(I75+K75)*10*1.2</f>
+        <f t="shared" si="4"/>
         <v>4.68785695588439</v>
       </c>
     </row>
@@ -5478,29 +5478,29 @@
         <v>5.66666666666667</v>
       </c>
       <c r="F76" s="10">
-        <f>D76+E76</f>
+        <f t="shared" ref="F76:F100" si="5">D76+E76</f>
         <v>12.6666666666667</v>
       </c>
       <c r="G76" s="11">
-        <f>F76/F$103</f>
+        <f t="shared" ref="G76:G100" si="6">F76/F$103</f>
         <v>0.0153287615974183</v>
       </c>
       <c r="H76" s="10">
         <v>8</v>
       </c>
       <c r="I76" s="11">
-        <f>H76/H$103</f>
+        <f t="shared" ref="I76:I100" si="7">H76/H$103</f>
         <v>0.020460358056266</v>
       </c>
       <c r="J76" s="10">
         <v>7</v>
       </c>
       <c r="K76" s="11">
-        <f>J76/J$103</f>
+        <f t="shared" ref="K76:K100" si="8">J76/J$103</f>
         <v>0.0194986072423398</v>
       </c>
       <c r="L76" s="21">
-        <f>G76/(I76+K76)*10*1.2</f>
+        <f t="shared" si="4"/>
         <v>4.60335090747301</v>
       </c>
     </row>
@@ -5521,25 +5521,25 @@
         <v>5</v>
       </c>
       <c r="F77" s="17">
-        <f>D77+E77</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="G77" s="18">
-        <f>F77/F$103</f>
+        <f t="shared" si="6"/>
         <v>0.0121016538926987</v>
       </c>
       <c r="H77" s="17">
         <v>6</v>
       </c>
       <c r="I77" s="18">
-        <f>H77/H$103</f>
+        <f t="shared" si="7"/>
         <v>0.0153452685421995</v>
       </c>
       <c r="J77" s="17">
         <v>4</v>
       </c>
       <c r="K77" s="18">
-        <f>J77/J$103</f>
+        <f t="shared" si="8"/>
         <v>0.011142061281337</v>
       </c>
       <c r="L77" s="23">
@@ -5564,25 +5564,25 @@
         <v>5</v>
       </c>
       <c r="F78" s="17">
-        <f>D78+E78</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="G78" s="18">
-        <f>F78/F$103</f>
+        <f t="shared" si="6"/>
         <v>0.0121016538926987</v>
       </c>
       <c r="H78" s="17">
         <v>6</v>
       </c>
       <c r="I78" s="18">
-        <f>H78/H$103</f>
+        <f t="shared" si="7"/>
         <v>0.0153452685421995</v>
       </c>
       <c r="J78" s="17">
         <v>4</v>
       </c>
       <c r="K78" s="18">
-        <f>J78/J$103</f>
+        <f t="shared" si="8"/>
         <v>0.011142061281337</v>
       </c>
       <c r="L78" s="23">
@@ -5607,25 +5607,25 @@
         <v>3.33333333333333</v>
       </c>
       <c r="F79" s="10">
-        <f>D79+E79</f>
+        <f t="shared" si="5"/>
         <v>8.33333333333333</v>
       </c>
       <c r="G79" s="11">
-        <f>F79/F$103</f>
+        <f t="shared" si="6"/>
         <v>0.0100847115772489</v>
       </c>
       <c r="H79" s="10">
         <v>6</v>
       </c>
       <c r="I79" s="11">
-        <f>H79/H$103</f>
+        <f t="shared" si="7"/>
         <v>0.0153452685421995</v>
       </c>
       <c r="J79" s="10">
         <v>4</v>
       </c>
       <c r="K79" s="11">
-        <f>J79/J$103</f>
+        <f t="shared" si="8"/>
         <v>0.011142061281337</v>
       </c>
       <c r="L79" s="21">
@@ -5650,25 +5650,25 @@
         <v>6</v>
       </c>
       <c r="F80" s="17">
-        <f>D80+E80</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="G80" s="18">
-        <f>F80/F$103</f>
+        <f t="shared" si="6"/>
         <v>0.0145219846712384</v>
       </c>
       <c r="H80" s="17">
         <v>6</v>
       </c>
       <c r="I80" s="18">
-        <f>H80/H$103</f>
+        <f t="shared" si="7"/>
         <v>0.0153452685421995</v>
       </c>
       <c r="J80" s="17">
         <v>6</v>
       </c>
       <c r="K80" s="18">
-        <f>J80/J$103</f>
+        <f t="shared" si="8"/>
         <v>0.0167130919220056</v>
       </c>
       <c r="L80" s="23">
@@ -5693,29 +5693,29 @@
         <v>4</v>
       </c>
       <c r="F81" s="14">
-        <f>D81+E81</f>
+        <f t="shared" si="5"/>
         <v>8.33333333333333</v>
       </c>
       <c r="G81" s="15">
-        <f>F81/F$103</f>
+        <f t="shared" si="6"/>
         <v>0.0100847115772489</v>
       </c>
       <c r="H81" s="14">
         <v>5</v>
       </c>
       <c r="I81" s="15">
-        <f>H81/H$103</f>
+        <f t="shared" si="7"/>
         <v>0.0127877237851662</v>
       </c>
       <c r="J81" s="14">
         <v>5</v>
       </c>
       <c r="K81" s="15">
-        <f>J81/J$103</f>
+        <f t="shared" si="8"/>
         <v>0.0139275766016713</v>
       </c>
       <c r="L81" s="22">
-        <f>G81/(I81+K81)*10*1.2</f>
+        <f t="shared" ref="L81:L100" si="9">G81/(I81+K81)*10*1.2</f>
         <v>4.52985881403792</v>
       </c>
     </row>
@@ -5736,29 +5736,29 @@
         <v>4</v>
       </c>
       <c r="F82" s="10">
-        <f>D82+E82</f>
+        <f t="shared" si="5"/>
         <v>8.33333333333333</v>
       </c>
       <c r="G82" s="11">
-        <f>F82/F$103</f>
+        <f t="shared" si="6"/>
         <v>0.0100847115772489</v>
       </c>
       <c r="H82" s="10">
         <v>5</v>
       </c>
       <c r="I82" s="11">
-        <f>H82/H$103</f>
+        <f t="shared" si="7"/>
         <v>0.0127877237851662</v>
       </c>
       <c r="J82" s="10">
         <v>5</v>
       </c>
       <c r="K82" s="11">
-        <f>J82/J$103</f>
+        <f t="shared" si="8"/>
         <v>0.0139275766016713</v>
       </c>
       <c r="L82" s="21">
-        <f>G82/(I82+K82)*10*1.2</f>
+        <f t="shared" si="9"/>
         <v>4.52985881403792</v>
       </c>
     </row>
@@ -5779,29 +5779,29 @@
         <v>4</v>
       </c>
       <c r="F83" s="10">
-        <f>D83+E83</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="G83" s="11">
-        <f>F83/F$103</f>
+        <f t="shared" si="6"/>
         <v>0.0108914885034288</v>
       </c>
       <c r="H83" s="10">
         <v>6</v>
       </c>
       <c r="I83" s="11">
-        <f>H83/H$103</f>
+        <f t="shared" si="7"/>
         <v>0.0153452685421995</v>
       </c>
       <c r="J83" s="10">
         <v>5</v>
       </c>
       <c r="K83" s="11">
-        <f>J83/J$103</f>
+        <f t="shared" si="8"/>
         <v>0.0139275766016713</v>
       </c>
       <c r="L83" s="21">
-        <f>G83/(I83+K83)*10*1.2</f>
+        <f t="shared" si="9"/>
         <v>4.46481581816831</v>
       </c>
     </row>
@@ -5822,29 +5822,29 @@
         <v>4</v>
       </c>
       <c r="F84" s="10">
-        <f>D84+E84</f>
+        <f t="shared" si="5"/>
         <v>8.66666666666667</v>
       </c>
       <c r="G84" s="11">
-        <f>F84/F$103</f>
+        <f t="shared" si="6"/>
         <v>0.0104881000403388</v>
       </c>
       <c r="H84" s="10">
         <v>5</v>
       </c>
       <c r="I84" s="11">
-        <f>H84/H$103</f>
+        <f t="shared" si="7"/>
         <v>0.0127877237851662</v>
       </c>
       <c r="J84" s="10">
         <v>6</v>
       </c>
       <c r="K84" s="11">
-        <f>J84/J$103</f>
+        <f t="shared" si="8"/>
         <v>0.0167130919220056</v>
       </c>
       <c r="L84" s="21">
-        <f>G84/(I84+K84)*10*1.2</f>
+        <f t="shared" si="9"/>
         <v>4.26622781326923</v>
       </c>
     </row>
@@ -5865,29 +5865,29 @@
         <v>3.66666666666667</v>
       </c>
       <c r="F85" s="10">
-        <f>D85+E85</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="G85" s="11">
-        <f>F85/F$103</f>
+        <f t="shared" si="6"/>
         <v>0.00847115772488907</v>
       </c>
       <c r="H85" s="10">
         <v>5</v>
       </c>
       <c r="I85" s="11">
-        <f>H85/H$103</f>
+        <f t="shared" si="7"/>
         <v>0.0127877237851662</v>
       </c>
       <c r="J85" s="10">
         <v>4</v>
       </c>
       <c r="K85" s="11">
-        <f>J85/J$103</f>
+        <f t="shared" si="8"/>
         <v>0.011142061281337</v>
       </c>
       <c r="L85" s="21">
-        <f>G85/(I85+K85)*10*1.2</f>
+        <f t="shared" si="9"/>
         <v>4.24800692593612</v>
       </c>
     </row>
@@ -5908,29 +5908,29 @@
         <v>4.66666666666667</v>
       </c>
       <c r="F86" s="10">
-        <f>D86+E86</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="G86" s="11">
-        <f>F86/F$103</f>
+        <f t="shared" si="6"/>
         <v>0.0108914885034288</v>
       </c>
       <c r="H86" s="10">
         <v>6</v>
       </c>
       <c r="I86" s="11">
-        <f>H86/H$103</f>
+        <f t="shared" si="7"/>
         <v>0.0153452685421995</v>
       </c>
       <c r="J86" s="10">
         <v>6</v>
       </c>
       <c r="K86" s="11">
-        <f>J86/J$103</f>
+        <f t="shared" si="8"/>
         <v>0.0167130919220056</v>
       </c>
       <c r="L86" s="21">
-        <f>G86/(I86+K86)*10*1.2</f>
+        <f t="shared" si="9"/>
         <v>4.07687293263413</v>
       </c>
     </row>
@@ -5951,29 +5951,29 @@
         <v>3</v>
       </c>
       <c r="F87" s="17">
-        <f>D87+E87</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="G87" s="18">
-        <f>F87/F$103</f>
+        <f t="shared" si="6"/>
         <v>0.0072609923356192</v>
       </c>
       <c r="H87" s="17">
         <v>4</v>
       </c>
       <c r="I87" s="18">
-        <f>H87/H$103</f>
+        <f t="shared" si="7"/>
         <v>0.010230179028133</v>
       </c>
       <c r="J87" s="17">
         <v>4</v>
       </c>
       <c r="K87" s="18">
-        <f>J87/J$103</f>
+        <f t="shared" si="8"/>
         <v>0.011142061281337</v>
       </c>
       <c r="L87" s="23">
-        <f>G87/(I87+K87)*10*1.2</f>
+        <f t="shared" si="9"/>
         <v>4.07687293263413</v>
       </c>
     </row>
@@ -5994,29 +5994,29 @@
         <v>4</v>
       </c>
       <c r="F88" s="17">
-        <f>D88+E88</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="G88" s="18">
-        <f>F88/F$103</f>
+        <f t="shared" si="6"/>
         <v>0.0108914885034288</v>
       </c>
       <c r="H88" s="17">
         <v>6</v>
       </c>
       <c r="I88" s="18">
-        <f>H88/H$103</f>
+        <f t="shared" si="7"/>
         <v>0.0153452685421995</v>
       </c>
       <c r="J88" s="17">
         <v>6</v>
       </c>
       <c r="K88" s="18">
-        <f>J88/J$103</f>
+        <f t="shared" si="8"/>
         <v>0.0167130919220056</v>
       </c>
       <c r="L88" s="23">
-        <f>G88/(I88+K88)*10*1.2</f>
+        <f t="shared" si="9"/>
         <v>4.07687293263413</v>
       </c>
     </row>
@@ -6037,29 +6037,29 @@
         <v>2.66666666666667</v>
       </c>
       <c r="F89" s="14">
-        <f>D89+E89</f>
+        <f t="shared" si="5"/>
         <v>6.66666666666667</v>
       </c>
       <c r="G89" s="15">
-        <f>F89/F$103</f>
+        <f t="shared" si="6"/>
         <v>0.00806776926179912</v>
       </c>
       <c r="H89" s="14">
         <v>4</v>
       </c>
       <c r="I89" s="15">
-        <f>H89/H$103</f>
+        <f t="shared" si="7"/>
         <v>0.010230179028133</v>
       </c>
       <c r="J89" s="14">
         <v>5</v>
       </c>
       <c r="K89" s="15">
-        <f>J89/J$103</f>
+        <f t="shared" si="8"/>
         <v>0.0139275766016713</v>
       </c>
       <c r="L89" s="22">
-        <f>G89/(I89+K89)*10*1.2</f>
+        <f t="shared" si="9"/>
         <v>4.0075424482789</v>
       </c>
     </row>
@@ -6080,29 +6080,29 @@
         <v>4</v>
       </c>
       <c r="F90" s="17">
-        <f>D90+E90</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="G90" s="18">
-        <f>F90/F$103</f>
+        <f t="shared" si="6"/>
         <v>0.00968132311415893</v>
       </c>
       <c r="H90" s="17">
         <v>6</v>
       </c>
       <c r="I90" s="18">
-        <f>H90/H$103</f>
+        <f t="shared" si="7"/>
         <v>0.0153452685421995</v>
       </c>
       <c r="J90" s="17">
         <v>5</v>
       </c>
       <c r="K90" s="18">
-        <f>J90/J$103</f>
+        <f t="shared" si="8"/>
         <v>0.0139275766016713</v>
       </c>
       <c r="L90" s="23">
-        <f>G90/(I90+K90)*10*1.2</f>
+        <f t="shared" si="9"/>
         <v>3.96872517170516</v>
       </c>
     </row>
@@ -6123,29 +6123,29 @@
         <v>2.66666666666667</v>
       </c>
       <c r="F91" s="14">
-        <f>D91+E91</f>
+        <f t="shared" si="5"/>
         <v>4.33333333333334</v>
       </c>
       <c r="G91" s="15">
-        <f>F91/F$103</f>
+        <f t="shared" si="6"/>
         <v>0.00524405002016943</v>
       </c>
       <c r="H91" s="14">
         <v>2</v>
       </c>
       <c r="I91" s="15">
-        <f>H91/H$103</f>
+        <f t="shared" si="7"/>
         <v>0.0051150895140665</v>
       </c>
       <c r="J91" s="14">
         <v>4</v>
       </c>
       <c r="K91" s="15">
-        <f>J91/J$103</f>
+        <f t="shared" si="8"/>
         <v>0.011142061281337</v>
       </c>
       <c r="L91" s="22">
-        <f>G91/(I91+K91)*10*1.2</f>
+        <f t="shared" si="9"/>
         <v>3.87082589280191</v>
       </c>
     </row>
@@ -6166,29 +6166,29 @@
         <v>3.33333333333333</v>
       </c>
       <c r="F92" s="10">
-        <f>D92+E92</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="G92" s="11">
-        <f>F92/F$103</f>
+        <f t="shared" si="6"/>
         <v>0.00968132311415893</v>
       </c>
       <c r="H92" s="10">
         <v>6</v>
       </c>
       <c r="I92" s="11">
-        <f>H92/H$103</f>
+        <f t="shared" si="7"/>
         <v>0.0153452685421995</v>
       </c>
       <c r="J92" s="10">
         <v>6</v>
       </c>
       <c r="K92" s="11">
-        <f>J92/J$103</f>
+        <f t="shared" si="8"/>
         <v>0.0167130919220056</v>
       </c>
       <c r="L92" s="21">
-        <f>G92/(I92+K92)*10*1.2</f>
+        <f t="shared" si="9"/>
         <v>3.62388705123033</v>
       </c>
     </row>
@@ -6209,29 +6209,29 @@
         <v>4</v>
       </c>
       <c r="F93" s="17">
-        <f>D93+E93</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="G93" s="18">
-        <f>F93/F$103</f>
+        <f t="shared" si="6"/>
         <v>0.00847115772488907</v>
       </c>
       <c r="H93" s="17">
         <v>6</v>
       </c>
       <c r="I93" s="18">
-        <f>H93/H$103</f>
+        <f t="shared" si="7"/>
         <v>0.0153452685421995</v>
       </c>
       <c r="J93" s="17">
         <v>5</v>
       </c>
       <c r="K93" s="18">
-        <f>J93/J$103</f>
+        <f t="shared" si="8"/>
         <v>0.0139275766016713</v>
       </c>
       <c r="L93" s="23">
-        <f>G93/(I93+K93)*10*1.2</f>
+        <f t="shared" si="9"/>
         <v>3.47263452524202</v>
       </c>
     </row>
@@ -6252,29 +6252,29 @@
         <v>3.66666666666667</v>
       </c>
       <c r="F94" s="10">
-        <f>D94+E94</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="G94" s="11">
-        <f>F94/F$103</f>
+        <f t="shared" si="6"/>
         <v>0.00847115772488907</v>
       </c>
       <c r="H94" s="10">
         <v>5</v>
       </c>
       <c r="I94" s="11">
-        <f>H94/H$103</f>
+        <f t="shared" si="7"/>
         <v>0.0127877237851662</v>
       </c>
       <c r="J94" s="10">
         <v>6</v>
       </c>
       <c r="K94" s="11">
-        <f>J94/J$103</f>
+        <f t="shared" si="8"/>
         <v>0.0167130919220056</v>
       </c>
       <c r="L94" s="21">
-        <f>G94/(I94+K94)*10*1.2</f>
+        <f t="shared" si="9"/>
         <v>3.44579938764053</v>
       </c>
     </row>
@@ -6295,29 +6295,29 @@
         <v>2.33333333333333</v>
       </c>
       <c r="F95" s="14">
-        <f>D95+E95</f>
+        <f t="shared" si="5"/>
         <v>5.33333333333333</v>
       </c>
       <c r="G95" s="15">
-        <f>F95/F$103</f>
+        <f t="shared" si="6"/>
         <v>0.00645421540943929</v>
       </c>
       <c r="H95" s="14">
         <v>5</v>
       </c>
       <c r="I95" s="15">
-        <f>H95/H$103</f>
+        <f t="shared" si="7"/>
         <v>0.0127877237851662</v>
       </c>
       <c r="J95" s="14">
         <v>5</v>
       </c>
       <c r="K95" s="15">
-        <f>J95/J$103</f>
+        <f t="shared" si="8"/>
         <v>0.0139275766016713</v>
       </c>
       <c r="L95" s="22">
-        <f>G95/(I95+K95)*10*1.2</f>
+        <f t="shared" si="9"/>
         <v>2.89910964098427</v>
       </c>
     </row>
@@ -6338,29 +6338,29 @@
         <v>2.66666666666667</v>
       </c>
       <c r="F96" s="10">
-        <f>D96+E96</f>
+        <f t="shared" si="5"/>
         <v>5.66666666666667</v>
       </c>
       <c r="G96" s="11">
-        <f>F96/F$103</f>
+        <f t="shared" si="6"/>
         <v>0.00685760387252925</v>
       </c>
       <c r="H96" s="10">
         <v>6</v>
       </c>
       <c r="I96" s="11">
-        <f>H96/H$103</f>
+        <f t="shared" si="7"/>
         <v>0.0153452685421995</v>
       </c>
       <c r="J96" s="10">
         <v>5</v>
       </c>
       <c r="K96" s="11">
-        <f>J96/J$103</f>
+        <f t="shared" si="8"/>
         <v>0.0139275766016713</v>
       </c>
       <c r="L96" s="21">
-        <f>G96/(I96+K96)*10*1.2</f>
+        <f t="shared" si="9"/>
         <v>2.81118032995782</v>
       </c>
     </row>
@@ -6381,29 +6381,29 @@
         <v>2.33333333333333</v>
       </c>
       <c r="F97" s="10">
-        <f>D97+E97</f>
+        <f t="shared" si="5"/>
         <v>5.66666666666666</v>
       </c>
       <c r="G97" s="11">
-        <f>F97/F$103</f>
+        <f t="shared" si="6"/>
         <v>0.00685760387252924</v>
       </c>
       <c r="H97" s="10">
         <v>5</v>
       </c>
       <c r="I97" s="11">
-        <f>H97/H$103</f>
+        <f t="shared" si="7"/>
         <v>0.0127877237851662</v>
       </c>
       <c r="J97" s="10">
         <v>6</v>
       </c>
       <c r="K97" s="11">
-        <f>J97/J$103</f>
+        <f t="shared" si="8"/>
         <v>0.0167130919220056</v>
       </c>
       <c r="L97" s="21">
-        <f>G97/(I97+K97)*10*1.2</f>
+        <f t="shared" si="9"/>
         <v>2.78945664713757</v>
       </c>
     </row>
@@ -6424,29 +6424,29 @@
         <v>2.33333333333333</v>
       </c>
       <c r="F98" s="10">
-        <f>D98+E98</f>
+        <f t="shared" si="5"/>
         <v>5.66666666666666</v>
       </c>
       <c r="G98" s="11">
-        <f>F98/F$103</f>
+        <f t="shared" si="6"/>
         <v>0.00685760387252924</v>
       </c>
       <c r="H98" s="10">
         <v>7</v>
       </c>
       <c r="I98" s="11">
-        <f>H98/H$103</f>
+        <f t="shared" si="7"/>
         <v>0.0179028132992327</v>
       </c>
       <c r="J98" s="10">
         <v>5</v>
       </c>
       <c r="K98" s="11">
-        <f>J98/J$103</f>
+        <f t="shared" si="8"/>
         <v>0.0139275766016713</v>
       </c>
       <c r="L98" s="21">
-        <f>G98/(I98+K98)*10*1.2</f>
+        <f t="shared" si="9"/>
         <v>2.58530438133319</v>
       </c>
     </row>
@@ -6467,29 +6467,29 @@
         <v>2.33333333333333</v>
       </c>
       <c r="F99" s="10">
-        <f>D99+E99</f>
+        <f t="shared" si="5"/>
         <v>5.66666666666666</v>
       </c>
       <c r="G99" s="11">
-        <f>F99/F$103</f>
+        <f t="shared" si="6"/>
         <v>0.00685760387252924</v>
       </c>
       <c r="H99" s="10">
         <v>6</v>
       </c>
       <c r="I99" s="11">
-        <f>H99/H$103</f>
+        <f t="shared" si="7"/>
         <v>0.0153452685421995</v>
       </c>
       <c r="J99" s="10">
         <v>6</v>
       </c>
       <c r="K99" s="11">
-        <f>J99/J$103</f>
+        <f t="shared" si="8"/>
         <v>0.0167130919220056</v>
       </c>
       <c r="L99" s="21">
-        <f>G99/(I99+K99)*10*1.2</f>
+        <f t="shared" si="9"/>
         <v>2.56691999462148</v>
       </c>
     </row>
@@ -6510,29 +6510,29 @@
         <v>3.33333333333333</v>
       </c>
       <c r="F100" s="14">
-        <f>D100+E100</f>
+        <f t="shared" si="5"/>
         <v>6.33333333333333</v>
       </c>
       <c r="G100" s="15">
-        <f>F100/F$103</f>
+        <f t="shared" si="6"/>
         <v>0.00766438079870915</v>
       </c>
       <c r="H100" s="14">
         <v>8</v>
       </c>
       <c r="I100" s="15">
-        <f>H100/H$103</f>
+        <f t="shared" si="7"/>
         <v>0.020460358056266</v>
       </c>
       <c r="J100" s="14">
         <v>6</v>
       </c>
       <c r="K100" s="15">
-        <f>J100/J$103</f>
+        <f t="shared" si="8"/>
         <v>0.0167130919220056</v>
       </c>
       <c r="L100" s="22">
-        <f>G100/(I100+K100)*10*1.2</f>
+        <f t="shared" si="9"/>
         <v>2.47414672671676</v>
       </c>
     </row>
@@ -6544,35 +6544,35 @@
         <v>194</v>
       </c>
       <c r="D103" s="25">
-        <f>SUM(D12:D100)</f>
+        <f t="shared" ref="D103:K103" si="10">SUM(D12:D100)</f>
         <v>424.666666666667</v>
       </c>
       <c r="E103" s="25">
-        <f>SUM(E12:E100)</f>
+        <f t="shared" si="10"/>
         <v>401.666666666667</v>
       </c>
       <c r="F103" s="25">
-        <f>SUM(F12:F100)</f>
+        <f t="shared" si="10"/>
         <v>826.333333333333</v>
       </c>
       <c r="G103">
-        <f>SUM(G12:G100)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H103">
-        <f>SUM(H12:H100)</f>
+        <f t="shared" si="10"/>
         <v>391</v>
       </c>
       <c r="I103">
-        <f>SUM(I12:I100)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J103">
-        <f>SUM(J12:J100)</f>
+        <f t="shared" si="10"/>
         <v>359</v>
       </c>
       <c r="K103">
-        <f>SUM(K12:K100)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -6581,10 +6581,15 @@
   <sortState ref="A12:L100">
     <sortCondition ref="L12:L100" descending="1"/>
   </sortState>
-  <mergeCells count="5">
+  <mergeCells count="10">
+    <mergeCell ref="H3:L3"/>
     <mergeCell ref="B4:D4"/>
+    <mergeCell ref="H4:L4"/>
     <mergeCell ref="B5:D5"/>
+    <mergeCell ref="H5:L5"/>
     <mergeCell ref="B6:D6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="H7:L7"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A1:F3"/>
   </mergeCells>
